--- a/biology/Botanique/Greigia_alborosea/Greigia_alborosea.xlsx
+++ b/biology/Botanique/Greigia_alborosea/Greigia_alborosea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Greigia alborosea est une espèce de plante de la famille des Bromeliaceae, endémique du Venezuela[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Greigia alborosea est une espèce de plante de la famille des Bromeliaceae, endémique du Venezuela.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nidularium alboroseum Griseb., 1865[2],[3] ;
-Karatas alborosea (Griseb.) Baker[4],[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nidularium alboroseum Griseb., 1865, ;
+Karatas alborosea (Griseb.) Baker,.</t>
         </is>
       </c>
     </row>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-L'espèce est endémique du Venezuela, et est présente dans certains États du centre-ouest du pays : Anzoátegui[2],[1], Aragua[2],[1], District capitale de Caracas[2],[1], Mérida[2], Sucre[2],[1], Táchira[1] et Trujillo[1].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique du Venezuela, et est présente dans certains États du centre-ouest du pays : Anzoátegui Aragua District capitale de Caracas Mérida, Sucre Táchira et Trujillo.
 </t>
         </is>
       </c>
@@ -574,9 +593,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce se rencontre entre 1 700 et 2 700 mètres d'altitude dans les forêts de montagnes[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre entre 1 700 et 2 700 mètres d'altitude dans les forêts de montagnes.
 </t>
         </is>
       </c>
@@ -605,9 +626,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles ensiformes en rosette de 1 à 1.3 mètre de longueur et rétrécies vers la base de 2.5 à 3 cm sont épineuses sur la tranche, les épines brunes mesurant 3 mm de longueur. Les bractées externes sont terminées en pointe. L'inflorescence comporte 10 à 20 fleurs, les sépales ovales et lancéolés mesurant 20 à 21 mm de large[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles ensiformes en rosette de 1 à 1.3 mètre de longueur et rétrécies vers la base de 2.5 à 3 cm sont épineuses sur la tranche, les épines brunes mesurant 3 mm de longueur. Les bractées externes sont terminées en pointe. L'inflorescence comporte 10 à 20 fleurs, les sépales ovales et lancéolés mesurant 20 à 21 mm de large.
 </t>
         </is>
       </c>
